--- a/Tables/PCA_ab_reason_sold.xlsx
+++ b/Tables/PCA_ab_reason_sold.xlsx
@@ -93,16 +93,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.31533373576321005</v>
+        <v>0.31533373576320939</v>
       </c>
       <c r="C1">
-        <v>-0.31393990426874058</v>
+        <v>-0.31393990426874091</v>
       </c>
       <c r="D1">
-        <v>-0.30151822743789236</v>
+        <v>-0.30151822743789308</v>
       </c>
       <c r="E1">
-        <v>-0.0081033139619297</v>
+        <v>-0.0081033139619285204</v>
       </c>
     </row>
     <row r="2">
@@ -110,16 +110,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.39635743635689918</v>
+        <v>0.39635743635689852</v>
       </c>
       <c r="C2">
-        <v>-0.14559064896341734</v>
+        <v>-0.14559064896341833</v>
       </c>
       <c r="D2">
-        <v>0.2310503134839299</v>
+        <v>0.23105031348393099</v>
       </c>
       <c r="E2">
-        <v>-0.064738658831714355</v>
+        <v>-0.064738658831715395</v>
       </c>
     </row>
     <row r="3">
@@ -127,16 +127,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3837549849813599</v>
+        <v>0.38375498498135902</v>
       </c>
       <c r="C3">
-        <v>-0.38581160202507586</v>
+        <v>-0.38581160202507697</v>
       </c>
       <c r="D3">
-        <v>-0.0076545816380391915</v>
+        <v>-0.0076545816380385705</v>
       </c>
       <c r="E3">
-        <v>-0.21185474341837174</v>
+        <v>-0.21185474341837213</v>
       </c>
     </row>
     <row r="4">
@@ -144,16 +144,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.40798228596692082</v>
+        <v>0.40798228596692027</v>
       </c>
       <c r="C4">
-        <v>-0.31545939543432966</v>
+        <v>-0.31545939543433099</v>
       </c>
       <c r="D4">
-        <v>0.309418152852452</v>
+        <v>0.30941815285245156</v>
       </c>
       <c r="E4">
-        <v>-0.14601194647071206</v>
+        <v>-0.14601194647071158</v>
       </c>
     </row>
     <row r="5">
@@ -161,16 +161,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.32654823966683738</v>
+        <v>0.3265482396668386</v>
       </c>
       <c r="C5">
-        <v>0.47468485824573303</v>
+        <v>0.47468485824573253</v>
       </c>
       <c r="D5">
-        <v>0.20942945681435365</v>
+        <v>0.20942945681435343</v>
       </c>
       <c r="E5">
-        <v>-0.27072185766053064</v>
+        <v>-0.27072185766052981</v>
       </c>
     </row>
     <row r="6">
@@ -178,16 +178,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.34938729155107023</v>
+        <v>0.34938729155107129</v>
       </c>
       <c r="C6">
-        <v>0.33464790602009808</v>
+        <v>0.33464790602009781</v>
       </c>
       <c r="D6">
-        <v>-0.22635911313680934</v>
+        <v>-0.22635911313681065</v>
       </c>
       <c r="E6">
-        <v>0.35257488934124881</v>
+        <v>0.35257488934124831</v>
       </c>
     </row>
     <row r="7">
@@ -195,16 +195,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.2962623349188524</v>
+        <v>0.29626233491885334</v>
       </c>
       <c r="C7">
-        <v>0.54192372889759166</v>
+        <v>0.54192372889759033</v>
       </c>
       <c r="D7">
-        <v>0.059764697197924863</v>
+        <v>0.05976469719792557</v>
       </c>
       <c r="E7">
-        <v>-0.20944274039782515</v>
+        <v>-0.20944274039782571</v>
       </c>
     </row>
     <row r="8">
@@ -212,16 +212,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.32926144842391253</v>
+        <v>0.32926144842391247</v>
       </c>
       <c r="C8">
-        <v>0.0089750886016265932</v>
+        <v>0.0089750886016262306</v>
       </c>
       <c r="D8">
-        <v>-0.51784552745711609</v>
+        <v>-0.51784552745711676</v>
       </c>
       <c r="E8">
-        <v>0.44865032547013484</v>
+        <v>0.44865032547013428</v>
       </c>
     </row>
     <row r="9">
@@ -229,16 +229,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.069701353908517338</v>
+        <v>0.06970135390851738</v>
       </c>
       <c r="C9">
-        <v>-0.028338334603693387</v>
+        <v>-0.02833833460369331</v>
       </c>
       <c r="D9">
-        <v>0.62695244668704841</v>
+        <v>0.62695244668704719</v>
       </c>
       <c r="E9">
-        <v>0.69770234962733468</v>
+        <v>0.69770234962733602</v>
       </c>
     </row>
   </sheetData>
@@ -255,16 +255,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.35474614992593761</v>
+        <v>0.35474614992593723</v>
       </c>
       <c r="C1">
-        <v>-0.17115982864746768</v>
+        <v>-0.17115982864746801</v>
       </c>
       <c r="D1">
-        <v>0.31236635511191085</v>
+        <v>0.31236635511191241</v>
       </c>
       <c r="E1">
-        <v>-0.19041868590370828</v>
+        <v>-0.19041868590370764</v>
       </c>
     </row>
     <row r="2">
@@ -272,16 +272,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.44005617437121386</v>
+        <v>0.44005617437121491</v>
       </c>
       <c r="C2">
-        <v>0.14968396721413715</v>
+        <v>0.14968396721413763</v>
       </c>
       <c r="D2">
-        <v>-0.0069314064746410289</v>
+        <v>-0.0069314064746425416</v>
       </c>
       <c r="E2">
-        <v>0.14060023005118297</v>
+        <v>0.14060023005118258</v>
       </c>
     </row>
     <row r="3">
@@ -289,16 +289,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.56455451324583583</v>
+        <v>0.56455451324583694</v>
       </c>
       <c r="C3">
-        <v>-0.063535397379779368</v>
+        <v>-0.063535397379779424</v>
       </c>
       <c r="D3">
-        <v>0.031941049240309688</v>
+        <v>0.031941049240309258</v>
       </c>
       <c r="E3">
-        <v>-0.13145619008283729</v>
+        <v>-0.13145619008283746</v>
       </c>
     </row>
     <row r="4">
@@ -306,16 +306,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.58890919674661857</v>
+        <v>0.58890919674661968</v>
       </c>
       <c r="C4">
-        <v>0.063616409711010707</v>
+        <v>0.063616409711010263</v>
       </c>
       <c r="D4">
-        <v>-0.11715541702264158</v>
+        <v>-0.11715541702264114</v>
       </c>
       <c r="E4">
-        <v>0.13578209131678559</v>
+        <v>0.13578209131678509</v>
       </c>
     </row>
     <row r="5">
@@ -323,16 +323,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.068909640309017459</v>
+        <v>0.068909640309017223</v>
       </c>
       <c r="C5">
-        <v>0.66195586018059227</v>
+        <v>0.66195586018059283</v>
       </c>
       <c r="D5">
-        <v>-0.07408656638214714</v>
+        <v>-0.07408656638214578</v>
       </c>
       <c r="E5">
-        <v>-0.026221563659767466</v>
+        <v>-0.026221563659767411</v>
       </c>
     </row>
     <row r="6">
@@ -340,16 +340,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.091586266820608803</v>
+        <v>-0.091586266820609386</v>
       </c>
       <c r="C6">
-        <v>0.27343457177891284</v>
+        <v>0.27343457177891373</v>
       </c>
       <c r="D6">
-        <v>0.55704477572003641</v>
+        <v>0.55704477572003752</v>
       </c>
       <c r="E6">
-        <v>0.1271015724688975</v>
+        <v>0.12710157246889714</v>
       </c>
     </row>
     <row r="7">
@@ -357,16 +357,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.041498209196760394</v>
+        <v>-0.04149820919676013</v>
       </c>
       <c r="C7">
-        <v>0.64585934102390408</v>
+        <v>0.6458593410239043</v>
       </c>
       <c r="D7">
-        <v>0.050429299188576068</v>
+        <v>0.050429299188575846</v>
       </c>
       <c r="E7">
-        <v>-0.086552155370794415</v>
+        <v>-0.086552155370794526</v>
       </c>
     </row>
     <row r="8">
@@ -374,16 +374,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.0016321260731377019</v>
+        <v>0.0016321260731370357</v>
       </c>
       <c r="C8">
-        <v>-0.094443928970323443</v>
+        <v>-0.094443928970322916</v>
       </c>
       <c r="D8">
-        <v>0.75431165374100717</v>
+        <v>0.75431165374100773</v>
       </c>
       <c r="E8">
-        <v>-0.0060305854652014101</v>
+        <v>-0.0060305854652010771</v>
       </c>
     </row>
     <row r="9">
@@ -391,16 +391,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.010418448626957927</v>
+        <v>0.010418448626957955</v>
       </c>
       <c r="C9">
-        <v>-0.034774397667707763</v>
+        <v>-0.034774397667707707</v>
       </c>
       <c r="D9">
-        <v>0.017796257264809823</v>
+        <v>0.017796257264809767</v>
       </c>
       <c r="E9">
-        <v>0.94015146090914026</v>
+        <v>0.94015146090914059</v>
       </c>
     </row>
   </sheetData>
@@ -417,16 +417,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.33990121541331858</v>
+        <v>0.33990121541331814</v>
       </c>
       <c r="C1">
-        <v>-0.15069736335356992</v>
+        <v>-0.15069736335357037</v>
       </c>
       <c r="D1">
-        <v>0.30195157263852324</v>
+        <v>0.30195157263852485</v>
       </c>
       <c r="E1">
-        <v>-0.17706679101190215</v>
+        <v>-0.17706679101190154</v>
       </c>
     </row>
     <row r="2">
@@ -434,16 +434,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.44818001027928883</v>
+        <v>0.44818001027928989</v>
       </c>
       <c r="C2">
-        <v>0.14793841982324524</v>
+        <v>0.14793841982324582</v>
       </c>
       <c r="D2">
-        <v>-0.0075506807135477692</v>
+        <v>-0.007550680713549111</v>
       </c>
       <c r="E2">
-        <v>0.14050319572280345</v>
+        <v>0.14050319572280315</v>
       </c>
     </row>
     <row r="3">
@@ -451,16 +451,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.5595628716845289</v>
+        <v>0.55956287168452989</v>
       </c>
       <c r="C3">
-        <v>-0.044091011805085234</v>
+        <v>-0.044091011805085248</v>
       </c>
       <c r="D3">
-        <v>0.020762226646453108</v>
+        <v>0.020762226646452865</v>
       </c>
       <c r="E3">
-        <v>-0.12421246358953408</v>
+        <v>-0.12421246358953422</v>
       </c>
     </row>
     <row r="4">
@@ -468,16 +468,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.59713315249237497</v>
+        <v>0.59713315249237586</v>
       </c>
       <c r="C4">
-        <v>0.064181419159216296</v>
+        <v>0.064181419159215991</v>
       </c>
       <c r="D4">
-        <v>-0.12012786653430173</v>
+        <v>-0.12012786653430102</v>
       </c>
       <c r="E4">
-        <v>0.13815686244869008</v>
+        <v>0.13815686244868972</v>
       </c>
     </row>
     <row r="5">
@@ -485,16 +485,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.085685680926216035</v>
+        <v>0.085685680926215826</v>
       </c>
       <c r="C5">
-        <v>0.66741015419157379</v>
+        <v>0.66741015419157435</v>
       </c>
       <c r="D5">
-        <v>-0.073953197623754879</v>
+        <v>-0.07395319762375363</v>
       </c>
       <c r="E5">
-        <v>-0.04985516949832719</v>
+        <v>-0.049855169498326968</v>
       </c>
     </row>
     <row r="6">
@@ -502,16 +502,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.092357276602246408</v>
+        <v>-0.092357276602246685</v>
       </c>
       <c r="C6">
-        <v>0.26550246748839723</v>
+        <v>0.26550246748839801</v>
       </c>
       <c r="D6">
-        <v>0.56354918262821452</v>
+        <v>0.56354918262821552</v>
       </c>
       <c r="E6">
-        <v>0.12722363479262375</v>
+        <v>0.12722363479262341</v>
       </c>
     </row>
     <row r="7">
@@ -519,16 +519,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.029281109125197581</v>
+        <v>-0.029281109125197182</v>
       </c>
       <c r="C7">
-        <v>0.65404940858737548</v>
+        <v>0.6540494085873757</v>
       </c>
       <c r="D7">
-        <v>0.0501414150076556</v>
+        <v>0.050141415007655177</v>
       </c>
       <c r="E7">
-        <v>-0.10896801102236826</v>
+        <v>-0.10896801102236825</v>
       </c>
     </row>
     <row r="8">
@@ -536,16 +536,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.015300479964736817</v>
+        <v>-0.01530047996473714</v>
       </c>
       <c r="C8">
-        <v>-0.09186806114009137</v>
+        <v>-0.091868061140091051</v>
       </c>
       <c r="D8">
-        <v>0.75470818318093058</v>
+        <v>0.75470818318093102</v>
       </c>
       <c r="E8">
-        <v>0.010145469034746335</v>
+        <v>0.010145469034746623</v>
       </c>
     </row>
     <row r="9">
@@ -553,16 +553,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.034760762366288979</v>
+        <v>0.034760762366289</v>
       </c>
       <c r="C9">
-        <v>-0.10262813530262238</v>
+        <v>-0.10262813530262221</v>
       </c>
       <c r="D9">
-        <v>0.046848614329558808</v>
+        <v>0.04684861432955905</v>
       </c>
       <c r="E9">
-        <v>0.94824224965417658</v>
+        <v>0.94824224965417714</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/PCA_ab_reason_sold.xlsx
+++ b/Tables/PCA_ab_reason_sold.xlsx
@@ -93,16 +93,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.31533373576320939</v>
+        <v>0.3153337357632095</v>
       </c>
       <c r="C1">
-        <v>-0.31393990426874091</v>
+        <v>-0.31393990426874113</v>
       </c>
       <c r="D1">
         <v>-0.30151822743789308</v>
       </c>
       <c r="E1">
-        <v>-0.0081033139619285204</v>
+        <v>-0.0081033139619275281</v>
       </c>
     </row>
     <row r="2">
@@ -110,16 +110,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.39635743635689852</v>
+        <v>0.39635743635689868</v>
       </c>
       <c r="C2">
-        <v>-0.14559064896341833</v>
+        <v>-0.14559064896341764</v>
       </c>
       <c r="D2">
-        <v>0.23105031348393099</v>
+        <v>0.23105031348392976</v>
       </c>
       <c r="E2">
-        <v>-0.064738658831715395</v>
+        <v>-0.064738658831715382</v>
       </c>
     </row>
     <row r="3">
@@ -127,16 +127,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.38375498498135902</v>
+        <v>0.38375498498135935</v>
       </c>
       <c r="C3">
-        <v>-0.38581160202507697</v>
+        <v>-0.38581160202507664</v>
       </c>
       <c r="D3">
-        <v>-0.0076545816380385705</v>
+        <v>-0.0076545816380397293</v>
       </c>
       <c r="E3">
-        <v>-0.21185474341837213</v>
+        <v>-0.21185474341837274</v>
       </c>
     </row>
     <row r="4">
@@ -144,16 +144,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.40798228596692027</v>
+        <v>0.40798228596692049</v>
       </c>
       <c r="C4">
-        <v>-0.31545939543433099</v>
+        <v>-0.31545939543433038</v>
       </c>
       <c r="D4">
-        <v>0.30941815285245156</v>
+        <v>0.30941815285245089</v>
       </c>
       <c r="E4">
-        <v>-0.14601194647071158</v>
+        <v>-0.14601194647071331</v>
       </c>
     </row>
     <row r="5">
@@ -161,16 +161,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3265482396668386</v>
+        <v>0.32654823966683816</v>
       </c>
       <c r="C5">
-        <v>0.47468485824573253</v>
+        <v>0.47468485824573259</v>
       </c>
       <c r="D5">
-        <v>0.20942945681435343</v>
+        <v>0.20942945681435274</v>
       </c>
       <c r="E5">
-        <v>-0.27072185766052981</v>
+        <v>-0.27072185766053147</v>
       </c>
     </row>
     <row r="6">
@@ -178,16 +178,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.34938729155107129</v>
+        <v>0.3493872915510709</v>
       </c>
       <c r="C6">
-        <v>0.33464790602009781</v>
+        <v>0.33464790602009814</v>
       </c>
       <c r="D6">
-        <v>-0.22635911313681065</v>
+        <v>-0.22635911313680893</v>
       </c>
       <c r="E6">
-        <v>0.35257488934124831</v>
+        <v>0.35257488934124986</v>
       </c>
     </row>
     <row r="7">
@@ -195,16 +195,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.29626233491885334</v>
+        <v>0.29626233491885279</v>
       </c>
       <c r="C7">
-        <v>0.54192372889759033</v>
+        <v>0.54192372889759111</v>
       </c>
       <c r="D7">
-        <v>0.05976469719792557</v>
+        <v>0.059764697197923981</v>
       </c>
       <c r="E7">
-        <v>-0.20944274039782571</v>
+        <v>-0.20944274039782529</v>
       </c>
     </row>
     <row r="8">
@@ -212,16 +212,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.32926144842391247</v>
+        <v>0.32926144842391242</v>
       </c>
       <c r="C8">
-        <v>0.0089750886016262306</v>
+        <v>0.0089750886016265064</v>
       </c>
       <c r="D8">
-        <v>-0.51784552745711676</v>
+        <v>-0.5178455274571141</v>
       </c>
       <c r="E8">
-        <v>0.44865032547013428</v>
+        <v>0.44865032547013656</v>
       </c>
     </row>
     <row r="9">
@@ -229,16 +229,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.06970135390851738</v>
+        <v>0.069701353908517505</v>
       </c>
       <c r="C9">
-        <v>-0.02833833460369331</v>
+        <v>-0.028338334603693394</v>
       </c>
       <c r="D9">
-        <v>0.62695244668704719</v>
+        <v>0.62695244668705141</v>
       </c>
       <c r="E9">
-        <v>0.69770234962733602</v>
+        <v>0.69770234962733257</v>
       </c>
     </row>
   </sheetData>
@@ -255,16 +255,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.35474614992593723</v>
+        <v>0.35474614992593778</v>
       </c>
       <c r="C1">
-        <v>-0.17115982864746801</v>
+        <v>-0.17115982864746834</v>
       </c>
       <c r="D1">
-        <v>0.31236635511191241</v>
+        <v>0.31236635511191152</v>
       </c>
       <c r="E1">
-        <v>-0.19041868590370764</v>
+        <v>-0.19041868590370797</v>
       </c>
     </row>
     <row r="2">
@@ -272,16 +272,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.44005617437121491</v>
+        <v>0.44005617437121397</v>
       </c>
       <c r="C2">
-        <v>0.14968396721413763</v>
+        <v>0.1496839672141374</v>
       </c>
       <c r="D2">
-        <v>-0.0069314064746425416</v>
+        <v>-0.0069314064746411747</v>
       </c>
       <c r="E2">
-        <v>0.14060023005118258</v>
+        <v>0.14060023005118311</v>
       </c>
     </row>
     <row r="3">
@@ -289,16 +289,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.56455451324583694</v>
+        <v>0.56455451324583705</v>
       </c>
       <c r="C3">
-        <v>-0.063535397379779424</v>
+        <v>-0.063535397379779091</v>
       </c>
       <c r="D3">
-        <v>0.031941049240309258</v>
+        <v>0.031941049240308758</v>
       </c>
       <c r="E3">
-        <v>-0.13145619008283746</v>
+        <v>-0.13145619008283768</v>
       </c>
     </row>
     <row r="4">
@@ -306,16 +306,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.58890919674661968</v>
+        <v>0.58890919674661935</v>
       </c>
       <c r="C4">
-        <v>0.063616409711010263</v>
+        <v>0.063616409711010707</v>
       </c>
       <c r="D4">
-        <v>-0.11715541702264114</v>
+        <v>-0.11715541702264122</v>
       </c>
       <c r="E4">
-        <v>0.13578209131678509</v>
+        <v>0.13578209131678542</v>
       </c>
     </row>
     <row r="5">
@@ -323,16 +323,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.068909640309017223</v>
+        <v>0.0689096403090175</v>
       </c>
       <c r="C5">
-        <v>0.66195586018059283</v>
+        <v>0.6619558601805926</v>
       </c>
       <c r="D5">
-        <v>-0.07408656638214578</v>
+        <v>-0.074086566382146446</v>
       </c>
       <c r="E5">
-        <v>-0.026221563659767411</v>
+        <v>-0.026221563659767272</v>
       </c>
     </row>
     <row r="6">
@@ -340,16 +340,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.091586266820609386</v>
+        <v>-0.091586266820609469</v>
       </c>
       <c r="C6">
-        <v>0.27343457177891373</v>
+        <v>0.27343457177891306</v>
       </c>
       <c r="D6">
-        <v>0.55704477572003752</v>
+        <v>0.55704477572003763</v>
       </c>
       <c r="E6">
-        <v>0.12710157246889714</v>
+        <v>0.12710157246889711</v>
       </c>
     </row>
     <row r="7">
@@ -357,16 +357,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.04149820919676013</v>
+        <v>-0.041498209196760838</v>
       </c>
       <c r="C7">
-        <v>0.6458593410239043</v>
+        <v>0.64585934102390408</v>
       </c>
       <c r="D7">
-        <v>0.050429299188575846</v>
+        <v>0.050429299188576637</v>
       </c>
       <c r="E7">
-        <v>-0.086552155370794526</v>
+        <v>-0.086552155370794401</v>
       </c>
     </row>
     <row r="8">
@@ -374,16 +374,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.0016321260731370357</v>
+        <v>0.0016321260731375353</v>
       </c>
       <c r="C8">
-        <v>-0.094443928970322916</v>
+        <v>-0.094443928970323221</v>
       </c>
       <c r="D8">
-        <v>0.75431165374100773</v>
+        <v>0.75431165374100673</v>
       </c>
       <c r="E8">
-        <v>-0.0060305854652010771</v>
+        <v>-0.0060305854652013546</v>
       </c>
     </row>
     <row r="9">
@@ -391,16 +391,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.010418448626957955</v>
+        <v>0.010418448626957733</v>
       </c>
       <c r="C9">
-        <v>-0.034774397667707707</v>
+        <v>-0.034774397667707624</v>
       </c>
       <c r="D9">
-        <v>0.017796257264809767</v>
+        <v>0.017796257264809878</v>
       </c>
       <c r="E9">
-        <v>0.94015146090914059</v>
+        <v>0.94015146090914081</v>
       </c>
     </row>
   </sheetData>
@@ -417,16 +417,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.33990121541331814</v>
+        <v>0.3399012154133188</v>
       </c>
       <c r="C1">
-        <v>-0.15069736335357037</v>
+        <v>-0.15069736335357065</v>
       </c>
       <c r="D1">
-        <v>0.30195157263852485</v>
+        <v>0.3019515726385239</v>
       </c>
       <c r="E1">
-        <v>-0.17706679101190154</v>
+        <v>-0.17706679101190173</v>
       </c>
     </row>
     <row r="2">
@@ -434,16 +434,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.44818001027928989</v>
+        <v>0.44818001027928894</v>
       </c>
       <c r="C2">
-        <v>0.14793841982324582</v>
+        <v>0.14793841982324551</v>
       </c>
       <c r="D2">
-        <v>-0.007550680713549111</v>
+        <v>-0.0075506807135477787</v>
       </c>
       <c r="E2">
-        <v>0.14050319572280315</v>
+        <v>0.14050319572280362</v>
       </c>
     </row>
     <row r="3">
@@ -451,16 +451,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.55956287168452989</v>
+        <v>0.55956287168453012</v>
       </c>
       <c r="C3">
-        <v>-0.044091011805085248</v>
+        <v>-0.044091011805084887</v>
       </c>
       <c r="D3">
-        <v>0.020762226646452865</v>
+        <v>0.020762226646452317</v>
       </c>
       <c r="E3">
-        <v>-0.12421246358953422</v>
+        <v>-0.1242124635895344</v>
       </c>
     </row>
     <row r="4">
@@ -468,16 +468,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.59713315249237586</v>
+        <v>0.59713315249237564</v>
       </c>
       <c r="C4">
-        <v>0.064181419159215991</v>
+        <v>0.06418141915921638</v>
       </c>
       <c r="D4">
-        <v>-0.12012786653430102</v>
+        <v>-0.12012786653430117</v>
       </c>
       <c r="E4">
-        <v>0.13815686244868972</v>
+        <v>0.13815686244868999</v>
       </c>
     </row>
     <row r="5">
@@ -485,16 +485,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.085685680926215826</v>
+        <v>0.08568568092621634</v>
       </c>
       <c r="C5">
-        <v>0.66741015419157435</v>
+        <v>0.66741015419157412</v>
       </c>
       <c r="D5">
-        <v>-0.07395319762375363</v>
+        <v>-0.073953197623754227</v>
       </c>
       <c r="E5">
-        <v>-0.049855169498326968</v>
+        <v>-0.049855169498327058</v>
       </c>
     </row>
     <row r="6">
@@ -502,16 +502,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.092357276602246685</v>
+        <v>-0.09235727660224681</v>
       </c>
       <c r="C6">
-        <v>0.26550246748839801</v>
+        <v>0.26550246748839734</v>
       </c>
       <c r="D6">
-        <v>0.56354918262821552</v>
+        <v>0.56354918262821563</v>
       </c>
       <c r="E6">
-        <v>0.12722363479262341</v>
+        <v>0.1272236347926233</v>
       </c>
     </row>
     <row r="7">
@@ -519,16 +519,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.029281109125197182</v>
+        <v>-0.029281109125197734</v>
       </c>
       <c r="C7">
-        <v>0.6540494085873757</v>
+        <v>0.65404940858737548</v>
       </c>
       <c r="D7">
-        <v>0.050141415007655177</v>
+        <v>0.050141415007656065</v>
       </c>
       <c r="E7">
-        <v>-0.10896801102236825</v>
+        <v>-0.10896801102236832</v>
       </c>
     </row>
     <row r="8">
@@ -536,16 +536,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.01530047996473714</v>
+        <v>-0.015300479964736735</v>
       </c>
       <c r="C8">
-        <v>-0.091868061140091051</v>
+        <v>-0.091868061140091328</v>
       </c>
       <c r="D8">
-        <v>0.75470818318093102</v>
+        <v>0.75470818318093003</v>
       </c>
       <c r="E8">
-        <v>0.010145469034746623</v>
+        <v>0.010145469034746397</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.034760762366289</v>
+        <v>0.034760762366288632</v>
       </c>
       <c r="C9">
-        <v>-0.10262813530262221</v>
+        <v>-0.1026281353026223</v>
       </c>
       <c r="D9">
-        <v>0.04684861432955905</v>
+        <v>0.04684861432955896</v>
       </c>
       <c r="E9">
         <v>0.94824224965417714</v>

--- a/Tables/PCA_ab_reason_sold.xlsx
+++ b/Tables/PCA_ab_reason_sold.xlsx
@@ -93,16 +93,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.3153337357632095</v>
+        <v>0.3398829885841983</v>
       </c>
       <c r="C1">
-        <v>-0.31393990426874113</v>
+        <v>-0.2696929861024136</v>
       </c>
       <c r="D1">
-        <v>-0.30151822743789308</v>
+        <v>-0.30410410205241939</v>
       </c>
       <c r="E1">
-        <v>-0.0081033139619275281</v>
+        <v>0.011318189727913139</v>
       </c>
     </row>
     <row r="2">
@@ -110,16 +110,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.39635743635689868</v>
+        <v>0.39942985394201885</v>
       </c>
       <c r="C2">
-        <v>-0.14559064896341764</v>
+        <v>-0.14756681032094376</v>
       </c>
       <c r="D2">
-        <v>0.23105031348392976</v>
+        <v>0.2276364401001347</v>
       </c>
       <c r="E2">
-        <v>-0.064738658831715382</v>
+        <v>0.037919339167287826</v>
       </c>
     </row>
     <row r="3">
@@ -127,16 +127,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.38375498498135935</v>
+        <v>0.40823844823698491</v>
       </c>
       <c r="C3">
-        <v>-0.38581160202507664</v>
+        <v>-0.34741744998263796</v>
       </c>
       <c r="D3">
-        <v>-0.0076545816380397293</v>
+        <v>-0.022371561271366969</v>
       </c>
       <c r="E3">
-        <v>-0.21185474341837274</v>
+        <v>-0.25197200365135558</v>
       </c>
     </row>
     <row r="4">
@@ -144,16 +144,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.40798228596692049</v>
+        <v>0.42597952768977299</v>
       </c>
       <c r="C4">
-        <v>-0.31545939543433038</v>
+        <v>-0.27760914559348188</v>
       </c>
       <c r="D4">
-        <v>0.30941815285245089</v>
+        <v>0.30691775480665434</v>
       </c>
       <c r="E4">
-        <v>-0.14601194647071331</v>
+        <v>-0.22995624150344884</v>
       </c>
     </row>
     <row r="5">
@@ -161,16 +161,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.32654823966683816</v>
+        <v>0.25030656023618159</v>
       </c>
       <c r="C5">
-        <v>0.47468485824573259</v>
+        <v>0.4957450118415252</v>
       </c>
       <c r="D5">
-        <v>0.20942945681435274</v>
+        <v>0.21439091874136768</v>
       </c>
       <c r="E5">
-        <v>-0.27072185766053147</v>
+        <v>-0.36742649050063836</v>
       </c>
     </row>
     <row r="6">
@@ -178,16 +178,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.3493872915510709</v>
+        <v>0.32574173330615697</v>
       </c>
       <c r="C6">
-        <v>0.33464790602009814</v>
+        <v>0.37302966493567191</v>
       </c>
       <c r="D6">
-        <v>-0.22635911313680893</v>
+        <v>-0.20412757668560355</v>
       </c>
       <c r="E6">
-        <v>0.35257488934124986</v>
+        <v>0.39075308068221393</v>
       </c>
     </row>
     <row r="7">
@@ -195,16 +195,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.29626233491885279</v>
+        <v>0.22161570146902745</v>
       </c>
       <c r="C7">
-        <v>0.54192372889759111</v>
+        <v>0.55857829613116672</v>
       </c>
       <c r="D7">
-        <v>0.059764697197923981</v>
+        <v>0.060347268095498646</v>
       </c>
       <c r="E7">
-        <v>-0.20944274039782529</v>
+        <v>-0.28019414635565509</v>
       </c>
     </row>
     <row r="8">
@@ -212,16 +212,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.32926144842391242</v>
+        <v>0.38499764942831233</v>
       </c>
       <c r="C8">
-        <v>0.0089750886016265064</v>
+        <v>0.10217602540983155</v>
       </c>
       <c r="D8">
-        <v>-0.5178455274571141</v>
+        <v>-0.46591894095202785</v>
       </c>
       <c r="E8">
-        <v>0.44865032547013656</v>
+        <v>0.37751885251011369</v>
       </c>
     </row>
     <row r="9">
@@ -229,16 +229,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.069701353908517505</v>
+        <v>0.10353935050831949</v>
       </c>
       <c r="C9">
-        <v>-0.028338334603693394</v>
+        <v>0.018976477654201383</v>
       </c>
       <c r="D9">
-        <v>0.62695244668705141</v>
+        <v>0.67279236423832678</v>
       </c>
       <c r="E9">
-        <v>0.69770234962733257</v>
+        <v>0.61101949153127799</v>
       </c>
     </row>
   </sheetData>
@@ -255,16 +255,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.35474614992593778</v>
+        <v>0.34045601729394531</v>
       </c>
       <c r="C1">
-        <v>-0.17115982864746834</v>
+        <v>-0.18875036824229766</v>
       </c>
       <c r="D1">
-        <v>0.31236635511191152</v>
+        <v>0.30077374403361262</v>
       </c>
       <c r="E1">
-        <v>-0.19041868590370797</v>
+        <v>-0.19713019216328329</v>
       </c>
     </row>
     <row r="2">
@@ -272,16 +272,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.44005617437121397</v>
+        <v>0.41315142510510655</v>
       </c>
       <c r="C2">
-        <v>0.1496839672141374</v>
+        <v>0.057486765172503292</v>
       </c>
       <c r="D2">
-        <v>-0.0069314064746411747</v>
+        <v>0.076659471157217191</v>
       </c>
       <c r="E2">
-        <v>0.14060023005118311</v>
+        <v>0.23388222274961909</v>
       </c>
     </row>
     <row r="3">
@@ -289,16 +289,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.56455451324583705</v>
+        <v>0.57155661937996183</v>
       </c>
       <c r="C3">
-        <v>-0.063535397379779091</v>
+        <v>-0.038676650021711736</v>
       </c>
       <c r="D3">
-        <v>0.031941049240308758</v>
+        <v>0.015481440584068723</v>
       </c>
       <c r="E3">
-        <v>-0.13145619008283768</v>
+        <v>-0.15144426411279721</v>
       </c>
     </row>
     <row r="4">
@@ -306,16 +306,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.58890919674661935</v>
+        <v>0.60362910357871358</v>
       </c>
       <c r="C4">
-        <v>0.063616409711010707</v>
+        <v>0.10049622462075526</v>
       </c>
       <c r="D4">
-        <v>-0.11715541702264122</v>
+        <v>-0.1325126448694417</v>
       </c>
       <c r="E4">
-        <v>0.13578209131678542</v>
+        <v>0.11651862533231874</v>
       </c>
     </row>
     <row r="5">
@@ -323,16 +323,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.0689096403090175</v>
+        <v>0.074155648233211108</v>
       </c>
       <c r="C5">
-        <v>0.6619558601805926</v>
+        <v>0.69322083339425644</v>
       </c>
       <c r="D5">
-        <v>-0.074086566382146446</v>
+        <v>-0.054168679094183908</v>
       </c>
       <c r="E5">
-        <v>-0.026221563659767272</v>
+        <v>-0.019843210725140781</v>
       </c>
     </row>
     <row r="6">
@@ -340,16 +340,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.091586266820609469</v>
+        <v>-0.12115456127614982</v>
       </c>
       <c r="C6">
-        <v>0.27343457177891306</v>
+        <v>0.17901355873741603</v>
       </c>
       <c r="D6">
-        <v>0.55704477572003763</v>
+        <v>0.60690159979403835</v>
       </c>
       <c r="E6">
-        <v>0.12710157246889711</v>
+        <v>0.15671953165793551</v>
       </c>
     </row>
     <row r="7">
@@ -357,16 +357,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.041498209196760838</v>
+        <v>-0.038979877492242354</v>
       </c>
       <c r="C7">
-        <v>0.64585934102390408</v>
+        <v>0.65488937428602012</v>
       </c>
       <c r="D7">
-        <v>0.050429299188576637</v>
+        <v>0.081113581423616382</v>
       </c>
       <c r="E7">
-        <v>-0.086552155370794401</v>
+        <v>-0.079340077965424</v>
       </c>
     </row>
     <row r="8">
@@ -374,16 +374,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.0016321260731375353</v>
+        <v>0.024850380629704308</v>
       </c>
       <c r="C8">
-        <v>-0.094443928970323221</v>
+        <v>-0.080703950251409196</v>
       </c>
       <c r="D8">
-        <v>0.75431165374100673</v>
+        <v>0.71266957190977887</v>
       </c>
       <c r="E8">
-        <v>-0.0060305854652013546</v>
+        <v>-0.056881332988929362</v>
       </c>
     </row>
     <row r="9">
@@ -391,16 +391,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.010418448626957733</v>
+        <v>0.0060063489754628163</v>
       </c>
       <c r="C9">
-        <v>-0.034774397667707624</v>
+        <v>-0.038457739089679199</v>
       </c>
       <c r="D9">
-        <v>0.017796257264809878</v>
+        <v>0.010866226770995913</v>
       </c>
       <c r="E9">
-        <v>0.94015146090914081</v>
+        <v>0.91402502121563378</v>
       </c>
     </row>
   </sheetData>
@@ -417,16 +417,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.3399012154133188</v>
+        <v>0.31902112000868216</v>
       </c>
       <c r="C1">
-        <v>-0.15069736335357065</v>
+        <v>-0.16370464878798527</v>
       </c>
       <c r="D1">
-        <v>0.3019515726385239</v>
+        <v>0.28588285028182758</v>
       </c>
       <c r="E1">
-        <v>-0.17706679101190173</v>
+        <v>-0.18445261018804585</v>
       </c>
     </row>
     <row r="2">
@@ -434,16 +434,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.44818001027928894</v>
+        <v>0.41879954360915872</v>
       </c>
       <c r="C2">
-        <v>0.14793841982324551</v>
+        <v>0.055276980378332362</v>
       </c>
       <c r="D2">
-        <v>-0.0075506807135477787</v>
+        <v>0.072455754422294918</v>
       </c>
       <c r="E2">
-        <v>0.14050319572280362</v>
+        <v>0.23739506852556558</v>
       </c>
     </row>
     <row r="3">
@@ -451,16 +451,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.55956287168453012</v>
+        <v>0.56806002418518708</v>
       </c>
       <c r="C3">
-        <v>-0.044091011805084887</v>
+        <v>-0.013280042519749742</v>
       </c>
       <c r="D3">
-        <v>0.020762226646452317</v>
+        <v>-0.0027297101776048004</v>
       </c>
       <c r="E3">
-        <v>-0.1242124635895344</v>
+        <v>-0.14590678701299922</v>
       </c>
     </row>
     <row r="4">
@@ -468,16 +468,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.59713315249237564</v>
+        <v>0.616676126161676</v>
       </c>
       <c r="C4">
-        <v>0.06418141915921638</v>
+        <v>0.108390900540571</v>
       </c>
       <c r="D4">
-        <v>-0.12012786653430117</v>
+        <v>-0.14396782626159305</v>
       </c>
       <c r="E4">
-        <v>0.13815686244868999</v>
+        <v>0.11666732606858193</v>
       </c>
     </row>
     <row r="5">
@@ -485,16 +485,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.08568568092621634</v>
+        <v>0.10402046294324128</v>
       </c>
       <c r="C5">
-        <v>0.66741015419157412</v>
+        <v>0.69962738933212387</v>
       </c>
       <c r="D5">
-        <v>-0.073953197623754227</v>
+        <v>-0.04674740473123553</v>
       </c>
       <c r="E5">
-        <v>-0.049855169498327058</v>
+        <v>-0.046295279777277903</v>
       </c>
     </row>
     <row r="6">
@@ -502,16 +502,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.09235727660224681</v>
+        <v>-0.13276853220619755</v>
       </c>
       <c r="C6">
-        <v>0.26550246748839734</v>
+        <v>0.1749941963988717</v>
       </c>
       <c r="D6">
-        <v>0.56354918262821563</v>
+        <v>0.61735915968515198</v>
       </c>
       <c r="E6">
-        <v>0.1272236347926233</v>
+        <v>0.1575070201492581</v>
       </c>
     </row>
     <row r="7">
@@ -519,16 +519,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.029281109125197734</v>
+        <v>-0.017078076828717072</v>
       </c>
       <c r="C7">
-        <v>0.65404940858737548</v>
+        <v>0.66363145724828598</v>
       </c>
       <c r="D7">
-        <v>0.050141415007656065</v>
+        <v>0.089827941242037773</v>
       </c>
       <c r="E7">
-        <v>-0.10896801102236832</v>
+        <v>-0.10389102814276013</v>
       </c>
     </row>
     <row r="8">
@@ -536,16 +536,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.015300479964736735</v>
+        <v>-0.005025222276928306</v>
       </c>
       <c r="C8">
-        <v>-0.091868061140091328</v>
+        <v>-0.067045206621319936</v>
       </c>
       <c r="D8">
-        <v>0.75470818318093003</v>
+        <v>0.71129310884707087</v>
       </c>
       <c r="E8">
-        <v>0.010145469034746397</v>
+        <v>-0.044898366046366309</v>
       </c>
     </row>
     <row r="9">
@@ -553,16 +553,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.034760762366288632</v>
+        <v>0.022855931903142626</v>
       </c>
       <c r="C9">
-        <v>-0.1026281353026223</v>
+        <v>-0.09676340479919518</v>
       </c>
       <c r="D9">
-        <v>0.04684861432955896</v>
+        <v>0.030411972312019628</v>
       </c>
       <c r="E9">
-        <v>0.94824224965417714</v>
+        <v>0.92077393898159487</v>
       </c>
     </row>
   </sheetData>
